--- a/docs/lkm-spec.xlsx
+++ b/docs/lkm-spec.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="593" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="593"/>
   </bookViews>
   <sheets>
     <sheet name="Общие положения" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="191">
   <si>
     <t>Примечание</t>
   </si>
@@ -597,6 +597,19 @@
   </si>
   <si>
     <t>Как формировать имя файла для скачивания?</t>
+  </si>
+  <si>
+    <t>Среднее количество вводимых документов по формам за месяц ?</t>
+  </si>
+  <si>
+    <t>Приблизительный размер справочников ?</t>
+  </si>
+  <si>
+    <t>Частота добавления справочников ?</t>
+  </si>
+  <si>
+    <t>За какой период должны по умолчанию выбираться записи в таблицы? 6 мес? Год?
+На таблицах стоит фильтр по умолчанию, выбирающий строки документов за последние N-месяцев. При необходимости обратиться к более старым даным, пользователь переключает фильтр.</t>
   </si>
 </sst>
 </file>
@@ -688,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -765,6 +778,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,13 +1104,39 @@
         <v>173</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>181</v>
+      <c r="A8" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1106,7 +1148,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2307,7 +2349,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2905,7 +2947,7 @@
   <dimension ref="A6:C6"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
